--- a/script/Pr_temp_spreadsheets/05_00_ARC05_7_1.xlsx
+++ b/script/Pr_temp_spreadsheets/05_00_ARC05_7_1.xlsx
@@ -506,7 +506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9d764e60-a7e6-42df-bd93-574effb0bdba}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57cf8abb-206a-4859-b04b-e3c7f8d699b3}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -580,7 +580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b7829d54-7fac-4796-ab78-35011aea5293}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3f4b2772-6a82-4632-9dbf-88dd6f482cd4}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
